--- a/Yifan/week-2/week2.xlsx
+++ b/Yifan/week-2/week2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10412"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niabbf/Desktop/niabbf/刷题/leetcode/week2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Library/Mobile Documents/com~apple~CloudDocs/Learning/Leetcode/2019SummerLeetcode/Yifan/week-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B472E74-8F0F-4946-A9B1-78E2EF23A102}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16020" tabRatio="500"/>
+    <workbookView xWindow="10420" yWindow="460" windowWidth="14400" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>题目编号</t>
     <rPh sb="0" eb="1">
@@ -93,13 +94,29 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/divide-two-integers/</t>
+  </si>
+  <si>
+    <t>交换链表中相邻的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将开头和后面分为两种情况。每次对三个节点进行操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,6 +179,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -429,14 +449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="58.5" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
@@ -444,7 +464,7 @@
     <col min="6" max="6" width="36.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>18</v>
       </c>
@@ -472,7 +492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>19</v>
       </c>
@@ -480,7 +500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>22</v>
       </c>
@@ -488,15 +508,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="32">
       <c r="A5">
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>29</v>
       </c>
@@ -507,11 +539,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Yifan/week-2/week2.xlsx
+++ b/Yifan/week-2/week2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Library/Mobile Documents/com~apple~CloudDocs/Learning/Leetcode/2019SummerLeetcode/Yifan/week-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B472E74-8F0F-4946-A9B1-78E2EF23A102}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517565AF-D97F-924A-8557-78A9F1659F41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10420" yWindow="460" windowWidth="14400" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="460" windowWidth="24880" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>题目编号</t>
     <rPh sb="0" eb="1">
@@ -109,6 +109,54 @@
   </si>
   <si>
     <t>将开头和后面分为两种情况。每次对三个节点进行操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除指定位置的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置dummy head以及双指针，即可一次定位到指定位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不使用乘除法来实现两个数字相处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成括号的序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(2^n*n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到全部唯一的四元组和为指定大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意去重，固定前两个元素后用双指针。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +501,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -484,28 +532,61 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="32">
       <c r="A2">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="32">
       <c r="A3">
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="16">
       <c r="A4">
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32">
@@ -528,12 +609,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="32">
       <c r="A6">
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
